--- a/relatorios/repasses_liberados/dentistas/01866294431/2023-08-25_relatorio_repasses_01866294431.xlsx
+++ b/relatorios/repasses_liberados/dentistas/01866294431/2023-08-25_relatorio_repasses_01866294431.xlsx
@@ -2403,7 +2403,7 @@
         <v>0</v>
       </c>
       <c r="M42">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N42">
         <v>0</v>
@@ -2623,7 +2623,7 @@
         <v>0</v>
       </c>
       <c r="M47">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N47">
         <v>0</v>
@@ -2667,7 +2667,7 @@
         <v>0</v>
       </c>
       <c r="M48">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N48">
         <v>0</v>
@@ -2887,7 +2887,7 @@
         <v>0</v>
       </c>
       <c r="M53">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N53">
         <v>0</v>
@@ -2975,7 +2975,7 @@
         <v>0</v>
       </c>
       <c r="M55">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N55">
         <v>0</v>
@@ -3503,7 +3503,7 @@
         <v>0</v>
       </c>
       <c r="M67">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N67">
         <v>0</v>
@@ -3547,7 +3547,7 @@
         <v>0</v>
       </c>
       <c r="M68">
-        <v>0.3</v>
+        <v>65</v>
       </c>
       <c r="N68">
         <v>0</v>
@@ -3591,7 +3591,7 @@
         <v>0</v>
       </c>
       <c r="M69">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N69">
         <v>0</v>
@@ -3635,7 +3635,7 @@
         <v>0</v>
       </c>
       <c r="M70">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N70">
         <v>0</v>
@@ -3855,7 +3855,7 @@
         <v>0</v>
       </c>
       <c r="M75">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N75">
         <v>0</v>
@@ -3899,7 +3899,7 @@
         <v>0</v>
       </c>
       <c r="M76">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N76">
         <v>0</v>

--- a/relatorios/repasses_liberados/dentistas/01866294431/2023-08-25_relatorio_repasses_01866294431.xlsx
+++ b/relatorios/repasses_liberados/dentistas/01866294431/2023-08-25_relatorio_repasses_01866294431.xlsx
@@ -643,10 +643,10 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N2">
-        <v>5.184</v>
+        <v>6.912000000000001</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -863,10 +863,10 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N7">
-        <v>7.244999999999999</v>
+        <v>9.66</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -907,10 +907,10 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N8">
-        <v>5.184</v>
+        <v>6.912000000000001</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -951,10 +951,10 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N9">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -995,10 +995,10 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N10">
-        <v>7.244999999999999</v>
+        <v>9.66</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -1083,10 +1083,10 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N12">
-        <v>5.184</v>
+        <v>6.912000000000001</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -1391,10 +1391,10 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>6.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1479,10 +1479,10 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N21">
-        <v>7.244999999999999</v>
+        <v>9.66</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1523,10 +1523,10 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N22">
-        <v>7.244999999999999</v>
+        <v>9.66</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -2051,10 +2051,10 @@
         <v>0</v>
       </c>
       <c r="M34">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N34">
-        <v>9.315</v>
+        <v>12.42</v>
       </c>
     </row>
     <row r="35" spans="1:14">
@@ -2095,10 +2095,10 @@
         <v>0</v>
       </c>
       <c r="M35">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N35">
-        <v>1.98</v>
+        <v>2.64</v>
       </c>
     </row>
     <row r="36" spans="1:14">
@@ -2579,7 +2579,7 @@
         <v>0</v>
       </c>
       <c r="M46">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N46">
         <v>0</v>
@@ -2623,7 +2623,7 @@
         <v>0</v>
       </c>
       <c r="M47">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N47">
         <v>0</v>
@@ -2931,7 +2931,7 @@
         <v>0</v>
       </c>
       <c r="M54">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N54">
         <v>0</v>
@@ -2975,7 +2975,7 @@
         <v>0</v>
       </c>
       <c r="M55">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N55">
         <v>0</v>
@@ -3459,7 +3459,7 @@
         <v>0</v>
       </c>
       <c r="M66">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N66">
         <v>0</v>
@@ -3547,7 +3547,7 @@
         <v>0</v>
       </c>
       <c r="M68">
-        <v>65</v>
+        <v>0.3</v>
       </c>
       <c r="N68">
         <v>0</v>
@@ -3855,7 +3855,7 @@
         <v>0</v>
       </c>
       <c r="M75">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N75">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="M77">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N77">
         <v>0</v>
